--- a/daily report.xlsx
+++ b/daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\software_development\web_scrapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7C56F2-864F-4BD8-B9E5-F26CF6348E0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6052A11-1B37-4B17-8960-2AC92A198B0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t xml:space="preserve">				</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Error at phase 2</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -598,15 +601,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -966,7 +969,7 @@
   <dimension ref="A2:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,36 +984,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1029,7 +1032,9 @@
       <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
